--- a/results/bmw/bmw_cars_2025-11-04.xlsx
+++ b/results/bmw/bmw_cars_2025-11-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1287,34 +1287,182 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
+        <v>39582</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive35 Gran Coupé M Edition</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>59950</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9500</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>210</v>
+      </c>
+      <c r="G7" t="n">
+        <v>286</v>
+      </c>
+      <c r="H7" t="n">
+        <v>475</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Active Cruise Control avec fonction Stop&amp;Go",
+    "Adaptive LED headlights",
+    "Climatisation à réglage électronique",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Tableau de bord Luxury",
+    "Toit ouvrant à commande électrique",
+    "Volant chauffant",
+    "Volant M sport"
+  ],
+  "Jantes": [
+    "Kit de réparation de pneus Plus"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Plus",
+    "Espace de rangement pour Wireless Charging",
+    "Harman/kardon Surround Sound System",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM"
+  ],
+  "Transmission, suspension et direction": [
+    "Attelage de remorque (rabattable électriquement)",
+    "Freins M Sport, rot",
+    "Suspension adaptative M",
+    "Variable Sport Steering",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01966d0c-dbce-79bb-8cc6-ccd2613bd398?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=5EHD&amp;paint=P0C36&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S03MF,S04NW,S05DM,S06NX,S06WC,S07M9,S08WC,S03AC,S0710,S0754,S05AC,S0715,S08WN,S0430,S08SM,S0431,S04T2,S0552,S02VL,S02VD,S06VB,S033B,S02VF,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S04MC,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S0688,S0248,S0403,S03FK,S0760,S06U2,S0322,S0488</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>24.86356725659273</v>
+      </c>
+      <c r="S7" t="n">
+        <v>78.8394041026441</v>
+      </c>
+      <c r="T7" t="n">
+        <v>90</v>
+      </c>
+      <c r="U7" t="n">
+        <v>100</v>
+      </c>
+      <c r="V7" t="n">
+        <v>73.4257428398092</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>14080</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>62900</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15001</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2025-06-01 00:00:00</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F8" t="n">
         <v>250</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>340</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>553</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -1370,90 +1518,90 @@
 }</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0195c757-2e20-7bd3-b14a-ae3d4a0fb09b?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=2EHD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O7" t="b">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O8" t="b">
         <v>1</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
         <v>57.97831215696448</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S8" t="n">
         <v>48.57142857142857</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T8" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U8" t="n">
         <v>42.85714285714285</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V8" t="n">
         <v>60.890572299543</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="9">
+      <c r="A9" t="n">
         <v>14080</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>62900</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15001</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2025-06-01 00:00:00</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>250</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>340</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>553</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -1509,90 +1657,90 @@
 }</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0195c757-2e20-7bd3-b14a-ae3d4a0fb09b?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=2EHD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O8" t="b">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O9" t="b">
         <v>1</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
         <v>57.97831215696448</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S9" t="n">
         <v>48.57142857142857</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T9" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U9" t="n">
         <v>42.85714285714285</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V9" t="n">
         <v>60.890572299543</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="10">
+      <c r="A10" t="n">
         <v>14080</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>62900</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15001</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2025-06-01 00:00:00</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>250</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>340</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>553</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -1648,90 +1796,90 @@
 }</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0195c757-2e20-7bd3-b14a-ae3d4a0fb09b?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=2EHD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O9" t="b">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O10" t="b">
         <v>1</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>57.97831215696448</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>48.57142857142857</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U10" t="n">
         <v>42.85714285714285</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V10" t="n">
         <v>60.890572299543</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="11">
+      <c r="A11" t="n">
         <v>14080</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>62900</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>15001</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2025-06-01 00:00:00</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F11" t="n">
         <v>250</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G11" t="n">
         <v>340</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>553</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -1787,90 +1935,90 @@
 }</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0195c757-2e20-7bd3-b14a-ae3d4a0fb09b?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=2EHD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O10" t="b">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O11" t="b">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>57.97831215696448</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>48.57142857142857</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U11" t="n">
         <v>42.85714285714285</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V11" t="n">
         <v>60.890572299543</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="12">
+      <c r="A12" t="n">
         <v>14080</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>62900</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>15001</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2025-06-01 00:00:00</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>250</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>340</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>553</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -1926,90 +2074,229 @@
 }</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0195c757-2e20-7bd3-b14a-ae3d4a0fb09b?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=2EHD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O11" t="b">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O12" t="b">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>57.97831215696448</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>48.57142857142857</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>42.85714285714285</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V12" t="n">
         <v>60.890572299543</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="13">
+      <c r="A13" t="n">
+        <v>14080</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive40 Gran Coupé M Edition</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>62900</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15001</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>250</v>
+      </c>
+      <c r="G13" t="n">
+        <v>340</v>
+      </c>
+      <c r="H13" t="n">
+        <v>553</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Adaptive LED headlights",
+    "Climatisation à réglage électronique",
+    "Cruise Control",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Espace de rangement pour Wireless Charging",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM",
+    "Système haut-parleurs HiFi"
+  ],
+  "Transmission, suspension et direction": [
+    "Attelage de remorque (rabattable électriquement)",
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0195c757-2e20-7bd3-b14a-ae3d4a0fb09b?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=2EHD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S03FA,S0760,S0322,S06U3,S0488</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>57.97831215696448</v>
+      </c>
+      <c r="S13" t="n">
+        <v>57.38631931986585</v>
+      </c>
+      <c r="T13" t="n">
+        <v>94.15540561263612</v>
+      </c>
+      <c r="U13" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="V13" t="n">
+        <v>63.09429498665232</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>14074</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>58500</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>15001</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2025-05-01 00:00:00</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F14" t="n">
         <v>210</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>286</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>464</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -2061,90 +2348,90 @@
 }</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01939440-204d-7b22-a0d1-1d4ed0ed596f?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=1EHD&amp;paint=P0C36&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S05DN,S06NX,S02BQ,S08WC,S03AC,S0775,S0676,S0710,S0534,S0337,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S06PA,S05AU,S06VB,S02PA,S0302,S04LN,S08TR,S0248,S0403,S0548,S03FA,S0760,S05DA,S07LG,S0420,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O12" t="b">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O14" t="b">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
         <v>34.17341294970642</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S14" t="n">
         <v>42.85714285714286</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T14" t="n">
         <v>87.01426161631653</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U14" t="n">
         <v>0</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V14" t="n">
         <v>41.01120435579146</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14074</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>58500</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>15001</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2025-05-01 00:00:00</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F15" t="n">
         <v>210</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>286</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>464</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -2196,90 +2483,90 @@
 }</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01939440-204d-7b22-a0d1-1d4ed0ed596f?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=1EHD&amp;paint=P0C36&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S05DN,S06NX,S02BQ,S08WC,S03AC,S0775,S0676,S0710,S0534,S0337,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S06PA,S05AU,S06VB,S02PA,S0302,S04LN,S08TR,S0248,S0403,S0548,S03FA,S0760,S05DA,S07LG,S0420,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O13" t="b">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O15" t="b">
         <v>1</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
         <v>34.17341294970642</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S15" t="n">
         <v>42.85714285714286</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T15" t="n">
         <v>87.01426161631653</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U15" t="n">
         <v>0</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V15" t="n">
         <v>41.01120435579146</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="16">
+      <c r="A16" t="n">
         <v>14074</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>58500</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>15001</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2025-05-01 00:00:00</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F16" t="n">
         <v>210</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G16" t="n">
         <v>286</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>464</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -2331,90 +2618,90 @@
 }</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01939440-204d-7b22-a0d1-1d4ed0ed596f?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=1EHD&amp;paint=P0C36&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S05DN,S06NX,S02BQ,S08WC,S03AC,S0775,S0676,S0710,S0534,S0337,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S06PA,S05AU,S06VB,S02PA,S0302,S04LN,S08TR,S0248,S0403,S0548,S03FA,S0760,S05DA,S07LG,S0420,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O14" t="b">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O16" t="b">
         <v>1</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>34.17341294970642</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S16" t="n">
         <v>42.85714285714286</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T16" t="n">
         <v>87.01426161631653</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U16" t="n">
         <v>0</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V16" t="n">
         <v>41.01120435579146</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="17">
+      <c r="A17" t="n">
         <v>14074</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C17" t="n">
         <v>58500</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>15001</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2025-05-01 00:00:00</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F17" t="n">
         <v>210</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G17" t="n">
         <v>286</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>464</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -2466,90 +2753,90 @@
 }</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01939440-204d-7b22-a0d1-1d4ed0ed596f?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=1EHD&amp;paint=P0C36&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S05DN,S06NX,S02BQ,S08WC,S03AC,S0775,S0676,S0710,S0534,S0337,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S06PA,S05AU,S06VB,S02PA,S0302,S04LN,S08TR,S0248,S0403,S0548,S03FA,S0760,S05DA,S07LG,S0420,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O15" t="b">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O17" t="b">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
         <v>34.17341294970642</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S17" t="n">
         <v>42.85714285714286</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T17" t="n">
         <v>87.01426161631653</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U17" t="n">
         <v>0</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V17" t="n">
         <v>41.01120435579146</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="18">
+      <c r="A18" t="n">
         <v>14074</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé M Edition</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>58500</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>15001</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2025-05-01 00:00:00</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F18" t="n">
         <v>210</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G18" t="n">
         <v>286</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>464</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -2601,90 +2888,225 @@
 }</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01939440-204d-7b22-a0d1-1d4ed0ed596f?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=1EHD&amp;paint=P0C36&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S05DN,S06NX,S02BQ,S08WC,S03AC,S0775,S0676,S0710,S0534,S0337,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S06PA,S05AU,S06VB,S02PA,S0302,S04LN,S08TR,S0248,S0403,S0548,S03FA,S0760,S05DA,S07LG,S0420,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O16" t="b">
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O18" t="b">
         <v>1</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
         <v>34.17341294970642</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S18" t="n">
         <v>42.85714285714286</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T18" t="n">
         <v>87.01426161631653</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U18" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V18" t="n">
         <v>41.01120435579146</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="19">
+      <c r="A19" t="n">
+        <v>14074</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive35 Gran Coupé M Edition</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>58500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15001</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>210</v>
+      </c>
+      <c r="G19" t="n">
+        <v>286</v>
+      </c>
+      <c r="H19" t="n">
+        <v>464</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Climatisation à réglage électronique",
+    "Driving Assistant Pack Professional",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Étriers de frein, laqués (blau)",
+    "Accès confort",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Toit ouvrant à commande électrique",
+    "Volant chauffant",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Espace de rangement pour Wireless Charging",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM",
+    "Système haut-parleurs HiFi"
+  ],
+  "Transmission, suspension et direction": [
+    "Étriers de frein, laqués (blau)",
+    "Attelage de remorque (rabattable électriquement)",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01939440-204d-7b22-a0d1-1d4ed0ed596f?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=1EHD&amp;paint=P0C36&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S05DN,S06NX,S02BQ,S08WC,S03AC,S0775,S0676,S0710,S0534,S0337,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S06PA,S05AU,S06VB,S02PA,S0302,S04LN,S08TR,S0248,S0403,S0548,S03FA,S0760,S05DA,S07LG,S0420,S0322,S06U3,S0488</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>34.17341294970642</v>
+      </c>
+      <c r="S19" t="n">
+        <v>57.38631931986585</v>
+      </c>
+      <c r="T19" t="n">
+        <v>87.01426161631653</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>44.6434984714722</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>14070</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>BMW i4 xDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>55900</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>7263</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F20" t="n">
         <v>295</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G20" t="n">
         <v>401</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>512</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -2739,90 +3161,90 @@
 }</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0194fadf-2025-7a82-80aa-adc54fe8ab1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=41HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S03AC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S02VL,S05AU,S04GQ,S06VB,S033B,S02VF,S02PA,S0302,S04LN,S08TR,S0688,S0248,S03M2,S0548,S03FA,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O17" t="b">
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O20" t="b">
         <v>1</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
         <v>75.38704057072009</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S20" t="n">
         <v>65.22148571428572</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T20" t="n">
         <v>67</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U20" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V20" t="n">
         <v>66.18784585696574</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="21">
+      <c r="A21" t="n">
         <v>14070</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>BMW i4 xDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>55900</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>7263</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F21" t="n">
         <v>295</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G21" t="n">
         <v>401</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>512</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -2877,90 +3299,90 @@
 }</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0194fadf-2025-7a82-80aa-adc54fe8ab1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=41HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S03AC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S02VL,S05AU,S04GQ,S06VB,S033B,S02VF,S02PA,S0302,S04LN,S08TR,S0688,S0248,S03M2,S0548,S03FA,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O18" t="b">
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O21" t="b">
         <v>1</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
         <v>75.38704057072009</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S21" t="n">
         <v>65.22148571428572</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T21" t="n">
         <v>67</v>
       </c>
-      <c r="U18" t="n">
+      <c r="U21" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V21" t="n">
         <v>66.18784585696574</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="22">
+      <c r="A22" t="n">
         <v>14070</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>BMW i4 xDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>55900</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>7263</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F22" t="n">
         <v>295</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G22" t="n">
         <v>401</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>512</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -3015,90 +3437,90 @@
 }</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0194fadf-2025-7a82-80aa-adc54fe8ab1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=41HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S03AC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S02VL,S05AU,S04GQ,S06VB,S033B,S02VF,S02PA,S0302,S04LN,S08TR,S0688,S0248,S03M2,S0548,S03FA,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O19" t="b">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O22" t="b">
         <v>1</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
         <v>75.38704057072009</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S22" t="n">
         <v>65.22148571428572</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T22" t="n">
         <v>67</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U22" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V19" t="n">
+      <c r="V22" t="n">
         <v>66.18784585696574</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="23">
+      <c r="A23" t="n">
         <v>14070</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>BMW i4 xDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>55900</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>7263</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F23" t="n">
         <v>295</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G23" t="n">
         <v>401</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>512</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -3153,90 +3575,90 @@
 }</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0194fadf-2025-7a82-80aa-adc54fe8ab1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=41HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S03AC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S02VL,S05AU,S04GQ,S06VB,S033B,S02VF,S02PA,S0302,S04LN,S08TR,S0688,S0248,S03M2,S0548,S03FA,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O20" t="b">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O23" t="b">
         <v>1</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
         <v>75.38704057072009</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S23" t="n">
         <v>65.22148571428572</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T23" t="n">
         <v>67</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U23" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V20" t="n">
+      <c r="V23" t="n">
         <v>66.18784585696574</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="24">
+      <c r="A24" t="n">
         <v>14070</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>BMW i4 xDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>55900</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>7263</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F24" t="n">
         <v>295</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>401</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>512</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -3291,88 +3713,226 @@
 }</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0194fadf-2025-7a82-80aa-adc54fe8ab1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=41HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S03AC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S02VL,S05AU,S04GQ,S06VB,S033B,S02VF,S02PA,S0302,S04LN,S08TR,S0688,S0248,S03M2,S0548,S03FA,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O21" t="b">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O24" t="b">
         <v>1</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
         <v>75.38704057072009</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S24" t="n">
         <v>65.22148571428572</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T24" t="n">
         <v>67</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U24" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V21" t="n">
+      <c r="V24" t="n">
         <v>66.18784585696574</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="25">
+      <c r="A25" t="n">
+        <v>14070</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BMW i4 xDrive40 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>55900</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7263</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>295</v>
+      </c>
+      <c r="G25" t="n">
+        <v>401</v>
+      </c>
+      <c r="H25" t="n">
+        <v>512</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Adaptive LED headlights",
+    "Climatisation à réglage électronique",
+    "Driving Assistant Pack Professional",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Réglage électrique des sièges avant, avec fonction-mémoire pour siège conducteur",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Volant chauffant",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Harman/kardon Surround Sound System",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM"
+  ],
+  "Transmission, suspension et direction": [
+    "Attelage de remorque (rabattable électriquement)",
+    "Freins M Sport, rot",
+    "Suspension adaptative M",
+    "Variable Sport Steering",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0194fadf-2025-7a82-80aa-adc54fe8ab1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=41HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S03AC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S02VL,S05AU,S04GQ,S06VB,S033B,S02VF,S02PA,S0302,S04LN,S08TR,S0688,S0248,S03M2,S0548,S03FA,S0760,S05DA,S0420,S06U3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>75.38704057072009</v>
+      </c>
+      <c r="S25" t="n">
+        <v>87.5633725918415</v>
+      </c>
+      <c r="T25" t="n">
+        <v>67</v>
+      </c>
+      <c r="U25" t="n">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="V25" t="n">
+        <v>71.77331757635469</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>1295</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>57900</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>10401</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2025-03-01 00:00:00</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F26" t="n">
         <v>250</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G26" t="n">
         <v>340</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -3426,88 +3986,88 @@
 }</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01943b89-5a88-7ce1-9a07-575165faba41?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S03MF,S05DM,S06NX,S06WC,S07M9,S08WC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S04H1,S04GQ,S06VB,S033B,S02PA,S0302,S05DF,S03FK,S03M2,S0548,S0760,S05DA,S07LG,S0420,S06U2,S0322,S0488</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O22" t="b">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O26" t="b">
         <v>1</v>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
         <v>68.48287106192461</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S26" t="n">
         <v>42.46617142857143</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T26" t="n">
         <v>27</v>
       </c>
-      <c r="U22" t="n">
+      <c r="U26" t="n">
         <v>21.42857142857143</v>
       </c>
-      <c r="V22" t="n">
+      <c r="V26" t="n">
         <v>39.84440347976686</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="27">
+      <c r="A27" t="n">
         <v>1295</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>57900</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>10401</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2025-03-01 00:00:00</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F27" t="n">
         <v>250</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G27" t="n">
         <v>340</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -3561,88 +4121,88 @@
 }</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01943b89-5a88-7ce1-9a07-575165faba41?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S03MF,S05DM,S06NX,S06WC,S07M9,S08WC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S04H1,S04GQ,S06VB,S033B,S02PA,S0302,S05DF,S03FK,S03M2,S0548,S0760,S05DA,S07LG,S0420,S06U2,S0322,S0488</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O23" t="b">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O27" t="b">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
         <v>68.48287106192461</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S27" t="n">
         <v>42.46617142857143</v>
       </c>
-      <c r="T23" t="n">
+      <c r="T27" t="n">
         <v>27</v>
       </c>
-      <c r="U23" t="n">
+      <c r="U27" t="n">
         <v>21.42857142857143</v>
       </c>
-      <c r="V23" t="n">
+      <c r="V27" t="n">
         <v>39.84440347976686</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="28">
+      <c r="A28" t="n">
         <v>1295</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>57900</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>10401</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2025-03-01 00:00:00</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F28" t="n">
         <v>250</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G28" t="n">
         <v>340</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -3696,88 +4256,88 @@
 }</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01943b89-5a88-7ce1-9a07-575165faba41?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S03MF,S05DM,S06NX,S06WC,S07M9,S08WC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S04H1,S04GQ,S06VB,S033B,S02PA,S0302,S05DF,S03FK,S03M2,S0548,S0760,S05DA,S07LG,S0420,S06U2,S0322,S0488</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O24" t="b">
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O28" t="b">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
         <v>68.48287106192461</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S28" t="n">
         <v>42.46617142857143</v>
       </c>
-      <c r="T24" t="n">
+      <c r="T28" t="n">
         <v>27</v>
       </c>
-      <c r="U24" t="n">
+      <c r="U28" t="n">
         <v>21.42857142857143</v>
       </c>
-      <c r="V24" t="n">
+      <c r="V28" t="n">
         <v>39.84440347976686</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="29">
+      <c r="A29" t="n">
         <v>1295</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>57900</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>10401</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2025-03-01 00:00:00</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F29" t="n">
         <v>250</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G29" t="n">
         <v>340</v>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -3831,88 +4391,88 @@
 }</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01943b89-5a88-7ce1-9a07-575165faba41?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S03MF,S05DM,S06NX,S06WC,S07M9,S08WC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S04H1,S04GQ,S06VB,S033B,S02PA,S0302,S05DF,S03FK,S03M2,S0548,S0760,S05DA,S07LG,S0420,S06U2,S0322,S0488</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O25" t="b">
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O29" t="b">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
         <v>68.48287106192461</v>
       </c>
-      <c r="S25" t="n">
+      <c r="S29" t="n">
         <v>42.46617142857143</v>
       </c>
-      <c r="T25" t="n">
+      <c r="T29" t="n">
         <v>27</v>
       </c>
-      <c r="U25" t="n">
+      <c r="U29" t="n">
         <v>21.42857142857143</v>
       </c>
-      <c r="V25" t="n">
+      <c r="V29" t="n">
         <v>39.84440347976686</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="30">
+      <c r="A30" t="n">
         <v>1295</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>57900</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>10401</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2025-03-01 00:00:00</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F30" t="n">
         <v>250</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G30" t="n">
         <v>340</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -3966,90 +4526,225 @@
 }</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01943b89-5a88-7ce1-9a07-575165faba41?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S03MF,S05DM,S06NX,S06WC,S07M9,S08WC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S04H1,S04GQ,S06VB,S033B,S02PA,S0302,S05DF,S03FK,S03M2,S0548,S0760,S05DA,S07LG,S0420,S06U2,S0322,S0488</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O26" t="b">
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O30" t="b">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R26" t="n">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
         <v>68.48287106192461</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S30" t="n">
         <v>42.46617142857143</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T30" t="n">
         <v>27</v>
       </c>
-      <c r="U26" t="n">
+      <c r="U30" t="n">
         <v>21.42857142857143</v>
       </c>
-      <c r="V26" t="n">
+      <c r="V30" t="n">
         <v>39.84440347976686</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive40 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>57900</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10401</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-03-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>250</v>
+      </c>
+      <c r="G31" t="n">
+        <v>340</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Active Cruise Control avec fonction Stop&amp;Go",
+    "Adaptive LED headlights",
+    "Climatisation à réglage électronique",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Réglage électrique des sièges avant, avec fonction-mémoire pour siège conducteur",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Plus",
+    "Espace de rangement pour Wireless Charging",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM"
+  ],
+  "Transmission, suspension et direction": [
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01943b89-5a88-7ce1-9a07-575165faba41?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S03MF,S05DM,S06NX,S06WC,S07M9,S08WC,S0775,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S04H1,S04GQ,S06VB,S033B,S02PA,S0302,S05DF,S03FK,S03M2,S0548,S0760,S05DA,S07LG,S0420,S06U2,S0322,S0488</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O31" t="b">
+        <v>1</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>68.48287106192461</v>
+      </c>
+      <c r="S31" t="n">
+        <v>75.32563762577021</v>
+      </c>
+      <c r="T31" t="n">
+        <v>27</v>
+      </c>
+      <c r="U31" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="V31" t="n">
+        <v>48.05927002906656</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>38011</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>55490</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>16895</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F32" t="n">
         <v>250</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G32" t="n">
         <v>340</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H32" t="n">
         <v>559</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -4108,90 +4803,90 @@
 }</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192952f-08ab-7f33-aeb4-b2c696c84055?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C5Y&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04H1,S04GQ,S09QY,S02PA,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O27" t="b">
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O32" t="b">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
         <v>88.7244229556443</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S32" t="n">
         <v>27.69295238095238</v>
       </c>
-      <c r="T27" t="n">
+      <c r="T32" t="n">
         <v>95.52341665388744</v>
       </c>
-      <c r="U27" t="n">
+      <c r="U32" t="n">
         <v>64.28571428571429</v>
       </c>
-      <c r="V27" t="n">
+      <c r="V32" t="n">
         <v>69.0566265690496</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="33">
+      <c r="A33" t="n">
         <v>38011</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C33" t="n">
         <v>55490</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D33" t="n">
         <v>16895</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F33" t="n">
         <v>250</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G33" t="n">
         <v>340</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H33" t="n">
         <v>559</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -4250,90 +4945,90 @@
 }</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192952f-08ab-7f33-aeb4-b2c696c84055?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C5Y&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04H1,S04GQ,S09QY,S02PA,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O28" t="b">
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O33" t="b">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
         <v>88.7244229556443</v>
       </c>
-      <c r="S28" t="n">
+      <c r="S33" t="n">
         <v>27.69295238095238</v>
       </c>
-      <c r="T28" t="n">
+      <c r="T33" t="n">
         <v>95.52341665388744</v>
       </c>
-      <c r="U28" t="n">
+      <c r="U33" t="n">
         <v>64.28571428571429</v>
       </c>
-      <c r="V28" t="n">
+      <c r="V33" t="n">
         <v>69.0566265690496</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="34">
+      <c r="A34" t="n">
         <v>38011</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>55490</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>16895</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F34" t="n">
         <v>250</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G34" t="n">
         <v>340</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H34" t="n">
         <v>559</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -4392,90 +5087,90 @@
 }</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192952f-08ab-7f33-aeb4-b2c696c84055?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C5Y&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04H1,S04GQ,S09QY,S02PA,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O29" t="b">
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O34" t="b">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R29" t="n">
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
         <v>88.7244229556443</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S34" t="n">
         <v>27.69295238095238</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T34" t="n">
         <v>95.52341665388744</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U34" t="n">
         <v>64.28571428571429</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V34" t="n">
         <v>69.0566265690496</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="35">
+      <c r="A35" t="n">
         <v>38011</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C35" t="n">
         <v>55490</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D35" t="n">
         <v>16895</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F35" t="n">
         <v>250</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G35" t="n">
         <v>340</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H35" t="n">
         <v>559</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -4534,90 +5229,90 @@
 }</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192952f-08ab-7f33-aeb4-b2c696c84055?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C5Y&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04H1,S04GQ,S09QY,S02PA,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O30" t="b">
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O35" t="b">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R30" t="n">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
         <v>88.7244229556443</v>
       </c>
-      <c r="S30" t="n">
+      <c r="S35" t="n">
         <v>27.69295238095238</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T35" t="n">
         <v>95.52341665388744</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U35" t="n">
         <v>64.28571428571429</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V35" t="n">
         <v>69.0566265690496</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="36">
+      <c r="A36" t="n">
         <v>38011</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
         <v>55490</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D36" t="n">
         <v>16895</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="F36" t="n">
         <v>250</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G36" t="n">
         <v>340</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H36" t="n">
         <v>559</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -4676,90 +5371,232 @@
 }</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192952f-08ab-7f33-aeb4-b2c696c84055?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C5Y&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04H1,S04GQ,S09QY,S02PA,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O31" t="b">
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O36" t="b">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R31" t="n">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
         <v>88.7244229556443</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S36" t="n">
         <v>27.69295238095238</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T36" t="n">
+        <v>95.52341665388744</v>
+      </c>
+      <c r="U36" t="n">
+        <v>64.28571428571429</v>
+      </c>
+      <c r="V36" t="n">
+        <v>69.0566265690496</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38011</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive40 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>55490</v>
+      </c>
+      <c r="D37" t="n">
+        <v>16895</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2025-02-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>250</v>
+      </c>
+      <c r="G37" t="n">
+        <v>340</v>
+      </c>
+      <c r="H37" t="n">
+        <v>559</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Adaptateur pour prise domestique (type E+F)",
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)",
+    "Flexible Fast Charger (mode 2)"
+  ],
+  "Equipements électriques": [
+    "Adaptive LED headlights",
+    "BMW IconicSounds Electric",
+    "Climatisation à réglage électronique",
+    "Cruise Control",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Réglage en largeur du dossier pour conducteur",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Espace de rangement pour Wireless Charging",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM",
+    "Système haut-parleurs HiFi"
+  ],
+  "Transmission, suspension et direction": [
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192952f-08ab-7f33-aeb4-b2c696c84055?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C5Y&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0676,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04H1,S04GQ,S09QY,S02PA,S03FA,S0760,S0322,S06U3,S0488</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>88.7244229556443</v>
+      </c>
+      <c r="S37" t="n">
+        <v>50</v>
+      </c>
+      <c r="T37" t="n">
         <v>95.52341665388745</v>
       </c>
-      <c r="U31" t="n">
+      <c r="U37" t="n">
         <v>64.28571428571429</v>
       </c>
-      <c r="V31" t="n">
-        <v>69.0566265690496</v>
+      <c r="V37" t="n">
+        <v>74.63338847381151</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="38">
+      <c r="A38" t="n">
         <v>9296</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>55750</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
         <v>6352</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="F38" t="n">
         <v>210</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G38" t="n">
         <v>286</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H38" t="n">
         <v>459</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -4816,90 +5653,90 @@
 }</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192ea61-6f47-7786-9647-743e758aff2c?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0475&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O32" t="b">
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O38" t="b">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R32" t="n">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
         <v>30.78382895293779</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S38" t="n">
         <v>67.72022857142858</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T38" t="n">
         <v>85.65710780555129</v>
       </c>
-      <c r="U32" t="n">
+      <c r="U38" t="n">
         <v>50</v>
       </c>
-      <c r="V32" t="n">
+      <c r="V38" t="n">
         <v>58.54029133247941</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="39">
+      <c r="A39" t="n">
         <v>9296</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C39" t="n">
         <v>55750</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D39" t="n">
         <v>6352</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F39" t="n">
         <v>210</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G39" t="n">
         <v>286</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H39" t="n">
         <v>459</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -4956,90 +5793,90 @@
 }</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192ea61-6f47-7786-9647-743e758aff2c?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0475&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O33" t="b">
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O39" t="b">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R33" t="n">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
         <v>30.78382895293779</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S39" t="n">
         <v>67.72022857142858</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T39" t="n">
         <v>85.65710780555129</v>
       </c>
-      <c r="U33" t="n">
+      <c r="U39" t="n">
         <v>50</v>
       </c>
-      <c r="V33" t="n">
+      <c r="V39" t="n">
         <v>58.54029133247941</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="40">
+      <c r="A40" t="n">
         <v>9296</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C40" t="n">
         <v>55750</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D40" t="n">
         <v>6352</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="F40" t="n">
         <v>210</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G40" t="n">
         <v>286</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H40" t="n">
         <v>459</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -5096,90 +5933,90 @@
 }</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192ea61-6f47-7786-9647-743e758aff2c?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0475&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O34" t="b">
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O40" t="b">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R34" t="n">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
         <v>30.78382895293779</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S40" t="n">
         <v>67.72022857142858</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T40" t="n">
         <v>85.65710780555129</v>
       </c>
-      <c r="U34" t="n">
+      <c r="U40" t="n">
         <v>50</v>
       </c>
-      <c r="V34" t="n">
+      <c r="V40" t="n">
         <v>58.54029133247941</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="41">
+      <c r="A41" t="n">
         <v>9296</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C41" t="n">
         <v>55750</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D41" t="n">
         <v>6352</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="F41" t="n">
         <v>210</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G41" t="n">
         <v>286</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H41" t="n">
         <v>459</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -5236,90 +6073,90 @@
 }</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192ea61-6f47-7786-9647-743e758aff2c?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0475&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O35" t="b">
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O41" t="b">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
         <v>30.78382895293779</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S41" t="n">
         <v>67.72022857142858</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T41" t="n">
         <v>85.65710780555129</v>
       </c>
-      <c r="U35" t="n">
+      <c r="U41" t="n">
         <v>50</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V41" t="n">
         <v>58.54029133247941</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="42">
+      <c r="A42" t="n">
         <v>9296</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C42" t="n">
         <v>55750</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D42" t="n">
         <v>6352</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F42" t="n">
         <v>210</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G42" t="n">
         <v>286</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H42" t="n">
         <v>459</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -5376,90 +6213,230 @@
 }</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192ea61-6f47-7786-9647-743e758aff2c?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0475&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O36" t="b">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O42" t="b">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
         <v>30.78382895293779</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S42" t="n">
         <v>67.72022857142858</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T42" t="n">
         <v>85.65710780555129</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U42" t="n">
         <v>50</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V42" t="n">
         <v>58.54029133247941</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="43">
+      <c r="A43" t="n">
+        <v>9296</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive35 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>55750</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6352</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2025-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>210</v>
+      </c>
+      <c r="G43" t="n">
+        <v>286</v>
+      </c>
+      <c r="H43" t="n">
+        <v>459</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Active Cruise Control avec fonction Stop&amp;Go",
+    "Adaptive LED headlights",
+    "Climatisation à réglage électronique",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Espace de rangement pour Wireless Charging",
+    "Harman/kardon Surround Sound System",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM"
+  ],
+  "Transmission, suspension et direction": [
+    "Attelage de remorque (rabattable électriquement)",
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0192ea61-6f47-7786-9647-743e758aff2c?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0475&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S03AC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S03FA,S0760,S0322,S06U3,S0488</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O43" t="b">
+        <v>1</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>30.78382895293779</v>
+      </c>
+      <c r="S43" t="n">
+        <v>91.11613758677171</v>
+      </c>
+      <c r="T43" t="n">
+        <v>85.65710780555129</v>
+      </c>
+      <c r="U43" t="n">
+        <v>50</v>
+      </c>
+      <c r="V43" t="n">
+        <v>64.3892685863152</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
         <v>95878</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C44" t="n">
         <v>59230</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D44" t="n">
         <v>10272</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F44" t="n">
         <v>250</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G44" t="n">
         <v>340</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H44" t="n">
         <v>553</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -5517,90 +6494,90 @@
 }</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01924800-bdea-7474-93ef-d794a269a54a?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FMAH7&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O37" t="b">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O44" t="b">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R37" t="n">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>66.8836854451643</v>
       </c>
-      <c r="S37" t="n">
+      <c r="S44" t="n">
         <v>44.96822857142858</v>
       </c>
-      <c r="T37" t="n">
+      <c r="T44" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U37" t="n">
+      <c r="U44" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V44" t="n">
         <v>65.78754419302155</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="45">
+      <c r="A45" t="n">
         <v>95878</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C45" t="n">
         <v>59230</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D45" t="n">
         <v>10272</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="F45" t="n">
         <v>250</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G45" t="n">
         <v>340</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H45" t="n">
         <v>553</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -5658,90 +6635,90 @@
 }</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01924800-bdea-7474-93ef-d794a269a54a?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FMAH7&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O38" t="b">
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O45" t="b">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R38" t="n">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>66.8836854451643</v>
       </c>
-      <c r="S38" t="n">
+      <c r="S45" t="n">
         <v>44.96822857142858</v>
       </c>
-      <c r="T38" t="n">
+      <c r="T45" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U45" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V45" t="n">
         <v>65.78754419302155</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="46">
+      <c r="A46" t="n">
         <v>95878</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C46" t="n">
         <v>59230</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D46" t="n">
         <v>10272</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F46" t="n">
         <v>250</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G46" t="n">
         <v>340</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H46" t="n">
         <v>553</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -5799,90 +6776,90 @@
 }</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01924800-bdea-7474-93ef-d794a269a54a?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FMAH7&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O39" t="b">
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O46" t="b">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R39" t="n">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
         <v>66.8836854451643</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S46" t="n">
         <v>44.96822857142858</v>
       </c>
-      <c r="T39" t="n">
+      <c r="T46" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U39" t="n">
+      <c r="U46" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V39" t="n">
+      <c r="V46" t="n">
         <v>65.78754419302155</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="47">
+      <c r="A47" t="n">
         <v>95878</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C47" t="n">
         <v>59230</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D47" t="n">
         <v>10272</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F47" t="n">
         <v>250</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G47" t="n">
         <v>340</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H47" t="n">
         <v>553</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -5940,90 +6917,90 @@
 }</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01924800-bdea-7474-93ef-d794a269a54a?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FMAH7&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O40" t="b">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O47" t="b">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R40" t="n">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
         <v>66.8836854451643</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S47" t="n">
         <v>44.96822857142858</v>
       </c>
-      <c r="T40" t="n">
+      <c r="T47" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U40" t="n">
+      <c r="U47" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V40" t="n">
+      <c r="V47" t="n">
         <v>65.78754419302155</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="48">
+      <c r="A48" t="n">
         <v>95878</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C48" t="n">
         <v>59230</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D48" t="n">
         <v>10272</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F48" t="n">
         <v>250</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G48" t="n">
         <v>340</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H48" t="n">
         <v>553</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -6081,90 +7058,231 @@
 }</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01924800-bdea-7474-93ef-d794a269a54a?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FMAH7&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O41" t="b">
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O48" t="b">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
         <v>66.8836854451643</v>
       </c>
-      <c r="S41" t="n">
+      <c r="S48" t="n">
         <v>44.96822857142858</v>
       </c>
-      <c r="T41" t="n">
+      <c r="T48" t="n">
         <v>94.15540561263612</v>
       </c>
-      <c r="U41" t="n">
+      <c r="U48" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V41" t="n">
+      <c r="V48" t="n">
         <v>65.78754419302155</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="49">
+      <c r="A49" t="n">
+        <v>95878</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive40 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>59230</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10272</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2025-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>250</v>
+      </c>
+      <c r="G49" t="n">
+        <v>340</v>
+      </c>
+      <c r="H49" t="n">
+        <v>553</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Adaptive LED headlights",
+    "BMW IconicSounds Electric",
+    "Climatisation à réglage électronique",
+    "Cruise Control",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Réglage en largeur du dossier pour conducteur",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Toit ouvrant à commande électrique",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Espace de rangement pour Wireless Charging",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM"
+  ],
+  "Transmission, suspension et direction": [
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01924800-bdea-7474-93ef-d794a269a54a?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FMAH7&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O49" t="b">
+        <v>1</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>66.8836854451643</v>
+      </c>
+      <c r="S49" t="n">
+        <v>75.82871850869667</v>
+      </c>
+      <c r="T49" t="n">
+        <v>94.15540561263612</v>
+      </c>
+      <c r="U49" t="n">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="V49" t="n">
+        <v>73.50266667733857</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>27433</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C50" t="n">
         <v>54900</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D50" t="n">
         <v>5500</v>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="F50" t="n">
         <v>210</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G50" t="n">
         <v>286</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H50" t="n">
         <v>462</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -6221,90 +7339,90 @@
 }</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0191ff1e-b3ad-7f85-9154-817a3faa61ed?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0C4P&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0688,S0403,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O42" t="b">
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O50" t="b">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
         <v>32.06850892315987</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S50" t="n">
         <v>54.72</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T50" t="n">
         <v>86.47140009201044</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U50" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V50" t="n">
         <v>57.60069153950686</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="51">
+      <c r="A51" t="n">
         <v>27433</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C51" t="n">
         <v>54900</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D51" t="n">
         <v>5500</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F51" t="n">
         <v>210</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G51" t="n">
         <v>286</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H51" t="n">
         <v>462</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -6361,90 +7479,90 @@
 }</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0191ff1e-b3ad-7f85-9154-817a3faa61ed?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0C4P&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0688,S0403,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O43" t="b">
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O51" t="b">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R43" t="n">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
         <v>32.06850892315987</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S51" t="n">
         <v>54.72</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T51" t="n">
         <v>86.47140009201044</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U51" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V43" t="n">
+      <c r="V51" t="n">
         <v>57.60069153950686</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="52">
+      <c r="A52" t="n">
         <v>27433</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C52" t="n">
         <v>54900</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D52" t="n">
         <v>5500</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="F52" t="n">
         <v>210</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G52" t="n">
         <v>286</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H52" t="n">
         <v>462</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -6501,90 +7619,90 @@
 }</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0191ff1e-b3ad-7f85-9154-817a3faa61ed?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0C4P&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0688,S0403,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O44" t="b">
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O52" t="b">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
         <v>32.06850892315987</v>
       </c>
-      <c r="S44" t="n">
+      <c r="S52" t="n">
         <v>54.72</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T52" t="n">
         <v>86.47140009201044</v>
       </c>
-      <c r="U44" t="n">
+      <c r="U52" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V44" t="n">
+      <c r="V52" t="n">
         <v>57.60069153950686</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="53">
+      <c r="A53" t="n">
         <v>27433</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C53" t="n">
         <v>54900</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D53" t="n">
         <v>5500</v>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="F53" t="n">
         <v>210</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G53" t="n">
         <v>286</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H53" t="n">
         <v>462</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -6641,90 +7759,90 @@
 }</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0191ff1e-b3ad-7f85-9154-817a3faa61ed?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0C4P&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0688,S0403,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O45" t="b">
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O53" t="b">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
         <v>32.06850892315987</v>
       </c>
-      <c r="S45" t="n">
+      <c r="S53" t="n">
         <v>54.72</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T53" t="n">
         <v>86.47140009201044</v>
       </c>
-      <c r="U45" t="n">
+      <c r="U53" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V45" t="n">
+      <c r="V53" t="n">
         <v>57.60069153950686</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="54">
+      <c r="A54" t="n">
         <v>27433</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>BMW i4 eDrive35 Gran Coupé</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C54" t="n">
         <v>54900</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D54" t="n">
         <v>5500</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="F54" t="n">
         <v>210</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G54" t="n">
         <v>286</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H54" t="n">
         <v>462</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -6781,90 +7899,230 @@
 }</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0191ff1e-b3ad-7f85-9154-817a3faa61ed?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0C4P&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0688,S0403,S03FA,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O46" t="b">
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O54" t="b">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
         <v>32.06850892315987</v>
       </c>
-      <c r="S46" t="n">
+      <c r="S54" t="n">
         <v>54.72</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T54" t="n">
         <v>86.47140009201044</v>
       </c>
-      <c r="U46" t="n">
+      <c r="U54" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V46" t="n">
+      <c r="V54" t="n">
         <v>57.60069153950686</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27433</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive35 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>54900</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2025-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>210</v>
+      </c>
+      <c r="G55" t="n">
+        <v>286</v>
+      </c>
+      <c r="H55" t="n">
+        <v>462</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Adaptive LED headlights",
+    "Climatisation à réglage électronique",
+    "Cruise Control",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Toit ouvrant à commande électrique",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Espace de rangement pour Wireless Charging",
+    "Harman/kardon Surround Sound System",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM"
+  ],
+  "Transmission, suspension et direction": [
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0191ff1e-b3ad-7f85-9154-817a3faa61ed?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=11HD&amp;paint=P0C4P&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S0544,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S09QY,S02PA,S04LN,S0688,S0403,S03FA,S0760,S0322,S06U3,S0488</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>32.06850892315987</v>
+      </c>
+      <c r="S55" t="n">
+        <v>94.43881132516964</v>
+      </c>
+      <c r="T55" t="n">
+        <v>86.47140009201044</v>
+      </c>
+      <c r="U55" t="n">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="V55" t="n">
+        <v>67.53039437079927</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>5928</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C56" t="n">
         <v>61900</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D56" t="n">
         <v>4074</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="F56" t="n">
         <v>250</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G56" t="n">
         <v>340</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H56" t="n">
         <v>547</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -6921,90 +8179,90 @@
 }</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01919330-9552-793a-be03-b855f9205b89?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S08WC,S03AC,S0775,S0676,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S05AS,S04GQ,S06VB,S033B,S02PA,S0302,S04LN,S0248,S05DF,S0403,S03FK,S03M2,S0548,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O47" t="b">
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O56" t="b">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R47" t="n">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
         <v>29.29546884797661</v>
       </c>
-      <c r="S47" t="n">
+      <c r="S56" t="n">
         <v>61.36868571428572</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T56" t="n">
         <v>92.78739457138477</v>
       </c>
-      <c r="U47" t="n">
+      <c r="U56" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V47" t="n">
+      <c r="V56" t="n">
         <v>60.14860156912606</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="57">
+      <c r="A57" t="n">
         <v>5928</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C57" t="n">
         <v>61900</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D57" t="n">
         <v>4074</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F57" t="n">
         <v>250</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G57" t="n">
         <v>340</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H57" t="n">
         <v>547</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -7061,90 +8319,90 @@
 }</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01919330-9552-793a-be03-b855f9205b89?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S08WC,S03AC,S0775,S0676,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S05AS,S04GQ,S06VB,S033B,S02PA,S0302,S04LN,S0248,S05DF,S0403,S03FK,S03M2,S0548,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O48" t="b">
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O57" t="b">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R48" t="n">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
         <v>29.29546884797661</v>
       </c>
-      <c r="S48" t="n">
+      <c r="S57" t="n">
         <v>61.36868571428572</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T57" t="n">
         <v>92.78739457138477</v>
       </c>
-      <c r="U48" t="n">
+      <c r="U57" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V48" t="n">
+      <c r="V57" t="n">
         <v>60.14860156912606</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="58">
+      <c r="A58" t="n">
         <v>5928</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C58" t="n">
         <v>61900</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D58" t="n">
         <v>4074</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F58" t="n">
         <v>250</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G58" t="n">
         <v>340</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H58" t="n">
         <v>547</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -7201,90 +8459,90 @@
 }</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01919330-9552-793a-be03-b855f9205b89?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S08WC,S03AC,S0775,S0676,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S05AS,S04GQ,S06VB,S033B,S02PA,S0302,S04LN,S0248,S05DF,S0403,S03FK,S03M2,S0548,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O49" t="b">
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O58" t="b">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R49" t="n">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
         <v>29.29546884797661</v>
       </c>
-      <c r="S49" t="n">
+      <c r="S58" t="n">
         <v>61.36868571428572</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T58" t="n">
         <v>92.78739457138477</v>
       </c>
-      <c r="U49" t="n">
+      <c r="U58" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V49" t="n">
+      <c r="V58" t="n">
         <v>60.14860156912606</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="59">
+      <c r="A59" t="n">
         <v>5928</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C59" t="n">
         <v>61900</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D59" t="n">
         <v>4074</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="F59" t="n">
         <v>250</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G59" t="n">
         <v>340</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H59" t="n">
         <v>547</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -7341,90 +8599,90 @@
 }</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01919330-9552-793a-be03-b855f9205b89?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S08WC,S03AC,S0775,S0676,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S05AS,S04GQ,S06VB,S033B,S02PA,S0302,S04LN,S0248,S05DF,S0403,S03FK,S03M2,S0548,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O50" t="b">
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O59" t="b">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
         <v>29.29546884797661</v>
       </c>
-      <c r="S50" t="n">
+      <c r="S59" t="n">
         <v>61.36868571428572</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T59" t="n">
         <v>92.78739457138477</v>
       </c>
-      <c r="U50" t="n">
+      <c r="U59" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V50" t="n">
+      <c r="V59" t="n">
         <v>60.14860156912606</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="60">
+      <c r="A60" t="n">
         <v>5928</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C60" t="n">
         <v>61900</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D60" t="n">
         <v>4074</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2025-02-01 00:00:00</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F60" t="n">
         <v>250</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G60" t="n">
         <v>340</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H60" t="n">
         <v>547</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -7481,90 +8739,230 @@
 }</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01919330-9552-793a-be03-b855f9205b89?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S08WC,S03AC,S0775,S0676,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S05AS,S04GQ,S06VB,S033B,S02PA,S0302,S04LN,S0248,S05DF,S0403,S03FK,S03M2,S0548,S0760,S05DA,S0420,S06U3</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O51" t="b">
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O60" t="b">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
         <v>29.29546884797661</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S60" t="n">
         <v>61.36868571428572</v>
       </c>
-      <c r="T51" t="n">
+      <c r="T60" t="n">
         <v>92.78739457138477</v>
       </c>
-      <c r="U51" t="n">
+      <c r="U60" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V51" t="n">
+      <c r="V60" t="n">
         <v>60.14860156912606</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5928</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive40 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>61900</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4074</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2025-02-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>250</v>
+      </c>
+      <c r="G61" t="n">
+        <v>340</v>
+      </c>
+      <c r="H61" t="n">
+        <v>547</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Active Cruise Control avec fonction Stop&amp;Go",
+    "Adaptive LED headlights",
+    "Climatisation à réglage électronique",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Réglage électrique des sièges avant, avec fonction-mémoire pour siège conducteur",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Toit ouvrant à commande électrique",
+    "Volant chauffant",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM",
+    "Système haut-parleurs HiFi"
+  ],
+  "Transmission, suspension et direction": [
+    "Attelage de remorque (rabattable électriquement)",
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01919330-9552-793a-be03-b855f9205b89?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FKHSW&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S07M9,S08WC,S03AC,S0775,S0676,S0710,S0754,S0534,S0337,S05AC,S0459,S08R3,S06AE,S0715,S06AF,S0493,S08WN,S0494,S0430,S04UR,S0431,S04T2,S0552,S06PA,S05AS,S04GQ,S06VB,S033B,S02PA,S0302,S04LN,S0248,S05DF,S0403,S03FK,S03M2,S0548,S0760,S05DA,S0420,S06U3</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O61" t="b">
+        <v>1</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>29.29546884797661</v>
+      </c>
+      <c r="S61" t="n">
+        <v>100</v>
+      </c>
+      <c r="T61" t="n">
+        <v>92.78739457138477</v>
+      </c>
+      <c r="U61" t="n">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="V61" t="n">
+        <v>69.80643014055464</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
         <v>95560</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C62" t="n">
         <v>58530</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D62" t="n">
         <v>11671</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F62" t="n">
         <v>250</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G62" t="n">
         <v>340</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H62" t="n">
         <v>559</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -7624,90 +9022,90 @@
 }</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0190a5d1-2263-7240-a8ea-83e6d10182a0?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S03GX,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0248,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O52" t="b">
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O62" t="b">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R52" t="n">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
         <v>72.92991489411408</v>
       </c>
-      <c r="S52" t="n">
+      <c r="S62" t="n">
         <v>41.13691428571429</v>
       </c>
-      <c r="T52" t="n">
+      <c r="T62" t="n">
         <v>95.52341665388744</v>
       </c>
-      <c r="U52" t="n">
+      <c r="U62" t="n">
         <v>85.71428571428571</v>
       </c>
-      <c r="V52" t="n">
+      <c r="V62" t="n">
         <v>73.82613288700038</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="63">
+      <c r="A63" t="n">
         <v>95560</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C63" t="n">
         <v>58530</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D63" t="n">
         <v>11671</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F63" t="n">
         <v>250</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G63" t="n">
         <v>340</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H63" t="n">
         <v>559</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -7767,90 +9165,90 @@
 }</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0190a5d1-2263-7240-a8ea-83e6d10182a0?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S03GX,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0248,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O53" t="b">
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O63" t="b">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>72.92991489411408</v>
       </c>
-      <c r="S53" t="n">
+      <c r="S63" t="n">
         <v>41.13691428571429</v>
       </c>
-      <c r="T53" t="n">
+      <c r="T63" t="n">
         <v>95.52341665388744</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U63" t="n">
         <v>85.71428571428571</v>
       </c>
-      <c r="V53" t="n">
+      <c r="V63" t="n">
         <v>73.82613288700038</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="64">
+      <c r="A64" t="n">
         <v>95560</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C64" t="n">
         <v>58530</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D64" t="n">
         <v>11671</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F64" t="n">
         <v>250</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G64" t="n">
         <v>340</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H64" t="n">
         <v>559</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -7910,90 +9308,90 @@
 }</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0190a5d1-2263-7240-a8ea-83e6d10182a0?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S03GX,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0248,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O54" t="b">
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O64" t="b">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R54" t="n">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>72.92991489411408</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S64" t="n">
         <v>41.13691428571429</v>
       </c>
-      <c r="T54" t="n">
+      <c r="T64" t="n">
         <v>95.52341665388744</v>
       </c>
-      <c r="U54" t="n">
+      <c r="U64" t="n">
         <v>85.71428571428571</v>
       </c>
-      <c r="V54" t="n">
+      <c r="V64" t="n">
         <v>73.82613288700038</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="65">
+      <c r="A65" t="n">
         <v>95560</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C65" t="n">
         <v>58530</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D65" t="n">
         <v>11671</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="F65" t="n">
         <v>250</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G65" t="n">
         <v>340</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H65" t="n">
         <v>559</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -8053,90 +9451,90 @@
 }</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0190a5d1-2263-7240-a8ea-83e6d10182a0?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S03GX,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0248,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O55" t="b">
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O65" t="b">
         <v>1</v>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>72.92991489411408</v>
       </c>
-      <c r="S55" t="n">
+      <c r="S65" t="n">
         <v>41.13691428571429</v>
       </c>
-      <c r="T55" t="n">
+      <c r="T65" t="n">
         <v>95.52341665388744</v>
       </c>
-      <c r="U55" t="n">
+      <c r="U65" t="n">
         <v>85.71428571428571</v>
       </c>
-      <c r="V55" t="n">
+      <c r="V65" t="n">
         <v>73.82613288700038</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="66">
+      <c r="A66" t="n">
         <v>95560</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C66" t="n">
         <v>58530</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D66" t="n">
         <v>11671</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2025-04-01 00:00:00</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F66" t="n">
         <v>250</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G66" t="n">
         <v>340</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H66" t="n">
         <v>559</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -8196,90 +9594,233 @@
 }</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0190a5d1-2263-7240-a8ea-83e6d10182a0?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S03GX,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0248,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O56" t="b">
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O66" t="b">
         <v>1</v>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
         <v>72.92991489411408</v>
       </c>
-      <c r="S56" t="n">
+      <c r="S66" t="n">
         <v>41.13691428571429</v>
       </c>
-      <c r="T56" t="n">
+      <c r="T66" t="n">
+        <v>95.52341665388744</v>
+      </c>
+      <c r="U66" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="V66" t="n">
+        <v>73.82613288700038</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>95560</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive40 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>58530</v>
+      </c>
+      <c r="D67" t="n">
+        <v>11671</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2025-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>250</v>
+      </c>
+      <c r="G67" t="n">
+        <v>340</v>
+      </c>
+      <c r="H67" t="n">
+        <v>559</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Adaptateur pour prise domestique (type E+F)",
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)",
+    "Flexible Fast Charger (mode 2)"
+  ],
+  "Equipements électriques": [
+    "Active Cruise Control avec fonction Stop&amp;Go",
+    "Adaptive LED headlights",
+    "BMW IconicSounds Electric",
+    "Climatisation à réglage électronique",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Réglage en largeur du dossier pour conducteur",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Volant chauffant",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Espace de rangement pour Wireless Charging",
+    "Harman/kardon Surround Sound System",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM"
+  ],
+  "Transmission, suspension et direction": [
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/0190a5d1-2263-7240-a8ea-83e6d10182a0?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0C4P&amp;fabric=FEPMI&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05YA,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S04T3,S06VB,S033B,S03GX,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0491,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S04V1,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0248,S0760,S0322,S06U3,S0488</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O67" t="b">
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>72.92991489411408</v>
+      </c>
+      <c r="S67" t="n">
+        <v>70.37282583261836</v>
+      </c>
+      <c r="T67" t="n">
         <v>95.52341665388745</v>
       </c>
-      <c r="U56" t="n">
+      <c r="U67" t="n">
         <v>85.71428571428571</v>
       </c>
-      <c r="V56" t="n">
-        <v>73.82613288700038</v>
+      <c r="V67" t="n">
+        <v>81.13511077372641</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="68">
+      <c r="A68" t="n">
         <v>93924</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C68" t="n">
         <v>58390</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D68" t="n">
         <v>10095</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F68" t="n">
         <v>250</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G68" t="n">
         <v>340</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H68" t="n">
         <v>554</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -8336,90 +9877,90 @@
 }</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01905f02-b6f6-7048-b969-7866a99e3a1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O57" t="b">
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O68" t="b">
         <v>1</v>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
         <v>70.11544292921138</v>
       </c>
-      <c r="S57" t="n">
+      <c r="S68" t="n">
         <v>48.6176</v>
       </c>
-      <c r="T57" t="n">
+      <c r="T68" t="n">
         <v>94.38340745284466</v>
       </c>
-      <c r="U57" t="n">
+      <c r="U68" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V57" t="n">
+      <c r="V68" t="n">
         <v>67.5648268812283</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="69">
+      <c r="A69" t="n">
         <v>93924</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C69" t="n">
         <v>58390</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D69" t="n">
         <v>10095</v>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F69" t="n">
         <v>250</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G69" t="n">
         <v>340</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H69" t="n">
         <v>554</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -8476,90 +10017,90 @@
 }</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01905f02-b6f6-7048-b969-7866a99e3a1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O58" t="b">
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O69" t="b">
         <v>1</v>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
         <v>70.11544292921138</v>
       </c>
-      <c r="S58" t="n">
+      <c r="S69" t="n">
         <v>48.6176</v>
       </c>
-      <c r="T58" t="n">
+      <c r="T69" t="n">
         <v>94.38340745284466</v>
       </c>
-      <c r="U58" t="n">
+      <c r="U69" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V58" t="n">
+      <c r="V69" t="n">
         <v>67.5648268812283</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="70">
+      <c r="A70" t="n">
         <v>93924</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C70" t="n">
         <v>58390</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D70" t="n">
         <v>10095</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F70" t="n">
         <v>250</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G70" t="n">
         <v>340</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H70" t="n">
         <v>554</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -8616,90 +10157,90 @@
 }</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01905f02-b6f6-7048-b969-7866a99e3a1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O59" t="b">
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O70" t="b">
         <v>1</v>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
         <v>70.11544292921138</v>
       </c>
-      <c r="S59" t="n">
+      <c r="S70" t="n">
         <v>48.6176</v>
       </c>
-      <c r="T59" t="n">
+      <c r="T70" t="n">
         <v>94.38340745284466</v>
       </c>
-      <c r="U59" t="n">
+      <c r="U70" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V59" t="n">
+      <c r="V70" t="n">
         <v>67.5648268812283</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="71">
+      <c r="A71" t="n">
         <v>93924</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C71" t="n">
         <v>58390</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D71" t="n">
         <v>10095</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F71" t="n">
         <v>250</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G71" t="n">
         <v>340</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H71" t="n">
         <v>554</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -8756,90 +10297,90 @@
 }</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01905f02-b6f6-7048-b969-7866a99e3a1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O60" t="b">
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O71" t="b">
         <v>1</v>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>70.11544292921138</v>
       </c>
-      <c r="S60" t="n">
+      <c r="S71" t="n">
         <v>48.6176</v>
       </c>
-      <c r="T60" t="n">
+      <c r="T71" t="n">
         <v>94.38340745284466</v>
       </c>
-      <c r="U60" t="n">
+      <c r="U71" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V60" t="n">
+      <c r="V71" t="n">
         <v>67.5648268812283</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="72">
+      <c r="A72" t="n">
         <v>93924</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>BMW i4 eDrive40 Gran Coupé</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C72" t="n">
         <v>58390</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D72" t="n">
         <v>10095</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2025-01-01 00:00:00</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F72" t="n">
         <v>250</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G72" t="n">
         <v>340</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H72" t="n">
         <v>554</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>{
   "Charging": [
@@ -8896,58 +10437,198 @@
 }</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01905f02-b6f6-7048-b969-7866a99e3a1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>NaT</t>
-        </is>
-      </c>
-      <c r="O61" t="b">
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O72" t="b">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>2025-11-04</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
         <v>70.11544292921138</v>
       </c>
-      <c r="S61" t="n">
+      <c r="S72" t="n">
         <v>48.6176</v>
       </c>
-      <c r="T61" t="n">
+      <c r="T72" t="n">
         <v>94.38340745284466</v>
       </c>
-      <c r="U61" t="n">
+      <c r="U72" t="n">
         <v>57.14285714285715</v>
       </c>
-      <c r="V61" t="n">
+      <c r="V72" t="n">
         <v>67.5648268812283</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>93924</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BMW i4 eDrive40 Gran Coupé</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>58390</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10095</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2025-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>250</v>
+      </c>
+      <c r="G73" t="n">
+        <v>340</v>
+      </c>
+      <c r="H73" t="n">
+        <v>554</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>{
+  "Charging": [
+    "Câble de recharge rapide jusqu'à 22kW (Mode 3)"
+  ],
+  "Equipements électriques": [
+    "Active Cruise Control avec fonction Stop&amp;Go",
+    "Adaptive LED headlights",
+    "Climatisation à réglage électronique",
+    "Driving Assistant Pack",
+    "High Beam Assist",
+    "M Lights Shadow Line",
+    "Parking Assistant Pack Plus",
+    "Système d'alarme"
+  ],
+  "Equipements extérieurs": [
+    "Accès confort",
+    "Spoiler arrière M",
+    "Kit aérodynamique M",
+    "M Shadow Line hochglänzend",
+    "M Shadow Line hochglänzend avec éléments supplémentaires",
+    "Vitres teintées foncées à l'arrière"
+  ],
+  "Equipements intérieurs": [
+    "Ceintures de sécurité M",
+    "Lumière intérieure d'ambiance",
+    "Ciel de pavillon M en Anthrazit",
+    "Pack rangement",
+    "Pack rétroviseurs",
+    "Rétroviseur intérieur anti-éblouissement automatique",
+    "Sièges chauffants à l'avant",
+    "Soutien lombaire à l'avant",
+    "Toit ouvrant à commande électrique",
+    "Volant M sport"
+  ],
+  "Télécommunication embarquée": [
+    "BMW Live Cockpit Navigation Professional avec Head-Up Display",
+    "Espace de rangement pour Wireless Charging",
+    "Harman/kardon Surround Sound System",
+    "Intelligent Emergency Call - eCall",
+    "Personal eSIM"
+  ],
+  "Transmission, suspension et direction": [
+    "Freins M Sport, rot",
+    "Volant M sport"
+  ],
+  "Autres.": [
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne",
+    "Code interne"
+  ]
+}</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>https://www.bmw.be/fr-be/sl/stocklocator_uc/details/01905f02-b6f6-7048-b969-7866a99e3a1e?filters=%257B%2522MARKETING_MODEL_RANGE%2522%253A%255B%2522i4_G26E%2522%255D%252C%2522COLOR%2522%253A%255B%2522GRAY%2522%252C%2522BLACK%2522%255D%252C%2522USED_CAR_MILEAGE%2522%253A%255B0%252C20000%255D%252C%2522REGISTRATION_YEAR%2522%253A%255B2025%252C2025%255D%252C%2522EQUIPMENT_GROUPS%2522%253A%257B%2522favorites%2522%253A%255B%2522M%2520Sport%2520package%2522%255D%257D%257D&amp;modelCode=21HD&amp;paint=P0475&amp;fabric=FKHKC&amp;modelRangeCode=G26&amp;options=S08WD,S07A2,S03MF,S05DN,S06NX,S07M9,S08WC,S0710,S0754,S05AC,S0715,S08WN,S0430,S0431,S04T2,S0552,S06VB,S033B,S0302,S05DF,S03M2,S0548,S05DA,S07LG,S0420,S0775,S0534,S0337,S08R3,S06AE,S06AF,S0493,S0494,S04UR,S06PA,S05AS,S04GQ,S02PA,S04LN,S0688,S0403,S03FK,S0760,S0322,S06U3,S0488</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>NaT</t>
+        </is>
+      </c>
+      <c r="O73" t="b">
+        <v>1</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>70.11544292921138</v>
+      </c>
+      <c r="S73" t="n">
+        <v>76.51899227829342</v>
+      </c>
+      <c r="T73" t="n">
+        <v>94.38340745284466</v>
+      </c>
+      <c r="U73" t="n">
+        <v>57.14285714285715</v>
+      </c>
+      <c r="V73" t="n">
+        <v>74.54017495080166</v>
       </c>
     </row>
   </sheetData>
